--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>0.07688769270332076</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.911094075610605</v>
+        <v>-1.873541869463903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2095452245814856</v>
+        <v>0.1376508248098083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03376913514607907</v>
+        <v>-0.0076005645163882</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09952450289107707</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.022500356663374</v>
+        <v>-1.995170421058971</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07781577665879358</v>
+        <v>0.05309874123357853</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.01844007478355469</v>
+        <v>-0.06812665279415848</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.1244193938551465</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.246095446997182</v>
+        <v>-2.217659725205834</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06471834004630578</v>
+        <v>0.05183498559135655</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03097821413546451</v>
+        <v>-0.0700521723706521</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1429226569511526</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.284442379785686</v>
+        <v>-2.281842287940709</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008152754582861</v>
+        <v>0.07584878247628109</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02793166035510796</v>
+        <v>-0.06919706358185132</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1518088695696831</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.247274423665336</v>
+        <v>-2.251065690592002</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06608456236222143</v>
+        <v>0.06126740885726527</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02771452859418565</v>
+        <v>-0.07604464301970176</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1513435425857373</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.938133079052199</v>
+        <v>-1.956126348936944</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1697619285992401</v>
+        <v>0.1774682763499518</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.05285118944500337</v>
+        <v>-0.07346223887435049</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1468486817240526</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.761755607829519</v>
+        <v>-1.782574640209637</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1546224775609998</v>
+        <v>0.1539558342613141</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.007318781163730598</v>
+        <v>-0.04390609279981635</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.148240444847861</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.333689489981339</v>
+        <v>-1.34893018785192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1873032472625142</v>
+        <v>0.1640268444757781</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03565508588476862</v>
+        <v>-0.05789706320374005</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1674452664448172</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7883612426629306</v>
+        <v>-0.8681437465469907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.19544019901101</v>
+        <v>0.1629564336880852</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04252454646079745</v>
+        <v>0.0324090120369309</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2133825624689107</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.434159568372324</v>
+        <v>-0.5392446315312771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09123220178522061</v>
+        <v>0.08249752777351167</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05976578415111155</v>
+        <v>0.04823157423312902</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2925213558754113</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1758757734629626</v>
+        <v>0.002680868331553812</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04918861578113128</v>
+        <v>-0.07571955529899504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1834698958091527</v>
+        <v>0.166024334692128</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.408145349088897</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6234996077317461</v>
+        <v>0.4053669669788939</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1141073527728411</v>
+        <v>-0.1649527800692662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2412501212002032</v>
+        <v>0.2305203966548514</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5580963980753225</v>
       </c>
       <c r="E14" t="n">
-        <v>1.060500453573609</v>
+        <v>0.7929532594319822</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4188115244626359</v>
+        <v>-0.4494978535511842</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3819027086237193</v>
+        <v>0.3491359401067834</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7365315479671356</v>
       </c>
       <c r="E15" t="n">
-        <v>1.573175377620956</v>
+        <v>1.251368420234469</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7887326843550703</v>
+        <v>-0.7781560498995822</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4160588764422873</v>
+        <v>0.4161796407362834</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9355628507699052</v>
       </c>
       <c r="E16" t="n">
-        <v>2.192494931997702</v>
+        <v>1.804005347022349</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9823312658857318</v>
+        <v>-0.9857773177093583</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5260922260516975</v>
+        <v>0.5293205361937249</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.144628286989894</v>
       </c>
       <c r="E17" t="n">
-        <v>2.597572529618571</v>
+        <v>2.210008194309845</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.311091318987147</v>
+        <v>-1.294858280175497</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5600587085397968</v>
+        <v>0.5779964756429572</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.352480861162539</v>
       </c>
       <c r="E18" t="n">
-        <v>3.062888332957785</v>
+        <v>2.596485650972606</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.542978280921344</v>
+        <v>-1.502784508323647</v>
       </c>
       <c r="G18" t="n">
-        <v>0.672374991242275</v>
+        <v>0.6821081054018204</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.552612073597631</v>
       </c>
       <c r="E19" t="n">
-        <v>3.280671489162861</v>
+        <v>2.80709126065371</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.818916763733671</v>
+        <v>-1.77027802944572</v>
       </c>
       <c r="G19" t="n">
-        <v>0.814959807369729</v>
+        <v>0.8207747911018449</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.741007085485689</v>
       </c>
       <c r="E20" t="n">
-        <v>3.566588884167462</v>
+        <v>3.092159646076278</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.000546261903828</v>
+        <v>-1.948258982127571</v>
       </c>
       <c r="G20" t="n">
-        <v>1.041922269759863</v>
+        <v>0.9943063724468186</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.913574442512131</v>
       </c>
       <c r="E21" t="n">
-        <v>3.855418040482858</v>
+        <v>3.340103379746545</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.269047371983889</v>
+        <v>-2.174658487733066</v>
       </c>
       <c r="G21" t="n">
-        <v>1.154636220743581</v>
+        <v>1.090851936210622</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.06681196934566</v>
       </c>
       <c r="E22" t="n">
-        <v>4.096764872113418</v>
+        <v>3.537015050393302</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.503782053557823</v>
+        <v>-2.399712508325655</v>
       </c>
       <c r="G22" t="n">
-        <v>1.163219634427456</v>
+        <v>1.100886961105158</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.196353579776693</v>
       </c>
       <c r="E23" t="n">
-        <v>4.350505291895499</v>
+        <v>3.767841970191312</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.664719382848626</v>
+        <v>-2.561276226151478</v>
       </c>
       <c r="G23" t="n">
-        <v>1.383055783630466</v>
+        <v>1.274055639647467</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.298618163225708</v>
       </c>
       <c r="E24" t="n">
-        <v>4.486654225041907</v>
+        <v>3.91777633047358</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.816515830957006</v>
+        <v>-2.72696849703821</v>
       </c>
       <c r="G24" t="n">
-        <v>1.475467305047271</v>
+        <v>1.360527143593423</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.373582917554722</v>
       </c>
       <c r="E25" t="n">
-        <v>4.708416503742087</v>
+        <v>4.133587003210052</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.953069751432775</v>
+        <v>-2.822050251177818</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54300443150426</v>
+        <v>1.440805512987679</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.42182857747802</v>
       </c>
       <c r="E26" t="n">
-        <v>4.803139624523768</v>
+        <v>4.258528034000538</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.09941869301678</v>
+        <v>-2.963686640652929</v>
       </c>
       <c r="G26" t="n">
-        <v>1.554376402522228</v>
+        <v>1.436638534924136</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.442668157609939</v>
       </c>
       <c r="E27" t="n">
-        <v>4.942103951514045</v>
+        <v>4.377904148536375</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.053426709505577</v>
+        <v>-2.928361864817711</v>
       </c>
       <c r="G27" t="n">
-        <v>1.550762012591818</v>
+        <v>1.45176029826275</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.435840335635133</v>
       </c>
       <c r="E28" t="n">
-        <v>4.967774292957017</v>
+        <v>4.429987714806598</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.026395025112103</v>
+        <v>-2.88938793357351</v>
       </c>
       <c r="G28" t="n">
-        <v>1.581825882579274</v>
+        <v>1.478578510419363</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.402067953890635</v>
       </c>
       <c r="E29" t="n">
-        <v>4.99024865005383</v>
+        <v>4.463551649648045</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.182944890014719</v>
+        <v>-3.00757073830529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.592253086468959</v>
+        <v>1.477971029425322</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.342382292662994</v>
       </c>
       <c r="E30" t="n">
-        <v>4.992659056568338</v>
+        <v>4.489587943497066</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.111824174621497</v>
+        <v>-2.95655361833836</v>
       </c>
       <c r="G30" t="n">
-        <v>1.569379231328876</v>
+        <v>1.457978439562197</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.258509317751075</v>
       </c>
       <c r="E31" t="n">
-        <v>4.959863621779595</v>
+        <v>4.484922050319943</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.062585583347964</v>
+        <v>-2.900586687119281</v>
       </c>
       <c r="G31" t="n">
-        <v>1.442971951231488</v>
+        <v>1.334669556502689</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.153443909477244</v>
       </c>
       <c r="E32" t="n">
-        <v>4.800265678294931</v>
+        <v>4.399799080990277</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.043703659037198</v>
+        <v>-2.863530956403453</v>
       </c>
       <c r="G32" t="n">
-        <v>1.411984931249303</v>
+        <v>1.333792490569525</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.029750654509325</v>
       </c>
       <c r="E33" t="n">
-        <v>4.645075021620448</v>
+        <v>4.294149841205332</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.105362979932366</v>
+        <v>-2.927572627461999</v>
       </c>
       <c r="G33" t="n">
-        <v>1.307145666123079</v>
+        <v>1.226461699478785</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.891024680322939</v>
       </c>
       <c r="E34" t="n">
-        <v>4.482623869209956</v>
+        <v>4.183491932822932</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.878779583242831</v>
+        <v>-2.687702413789846</v>
       </c>
       <c r="G34" t="n">
-        <v>1.201278074735858</v>
+        <v>1.120348919979512</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.743356505884122</v>
       </c>
       <c r="E35" t="n">
-        <v>4.267417017943465</v>
+        <v>3.984458958062445</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.830898370435402</v>
+        <v>-2.627521540615115</v>
       </c>
       <c r="G35" t="n">
-        <v>1.166613233072882</v>
+        <v>1.077284860677038</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.59209919517178</v>
       </c>
       <c r="E36" t="n">
-        <v>4.094991222785435</v>
+        <v>3.832516738912322</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.786513832867769</v>
+        <v>-2.589500305467995</v>
       </c>
       <c r="G36" t="n">
-        <v>1.142759235405266</v>
+        <v>1.055439331797953</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.441214743027611</v>
       </c>
       <c r="E37" t="n">
-        <v>3.769089867895938</v>
+        <v>3.53187829845373</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.813197252554819</v>
+        <v>-2.596608321034817</v>
       </c>
       <c r="G37" t="n">
-        <v>1.103734680744895</v>
+        <v>1.031218771803611</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.295345071184527</v>
       </c>
       <c r="E38" t="n">
-        <v>3.548425446413905</v>
+        <v>3.366759353003142</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.756263597063096</v>
+        <v>-2.558451073576781</v>
       </c>
       <c r="G38" t="n">
-        <v>1.057918049428257</v>
+        <v>0.9961605313041327</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.158122331677413</v>
       </c>
       <c r="E39" t="n">
-        <v>3.30729330686156</v>
+        <v>3.132249732158928</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.779471688734036</v>
+        <v>-2.555480149960342</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9536167343389255</v>
+        <v>0.8940470016822961</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.031226561736319</v>
       </c>
       <c r="E40" t="n">
-        <v>3.082535097797193</v>
+        <v>2.91100100666857</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.832124310995666</v>
+        <v>-2.617860397095426</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8507371443470932</v>
+        <v>0.8033286200641434</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9171792997497374</v>
       </c>
       <c r="E41" t="n">
-        <v>2.787093181504495</v>
+        <v>2.627197596729578</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.714566369997214</v>
+        <v>-2.525146355022954</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8428118350734289</v>
+        <v>0.7839496104018274</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8168807501950507</v>
       </c>
       <c r="E42" t="n">
-        <v>2.458243470063598</v>
+        <v>2.326553057064218</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.743796208509688</v>
+        <v>-2.501520467688441</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8225710074948679</v>
+        <v>0.7652939666621346</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7286340023311525</v>
       </c>
       <c r="E43" t="n">
-        <v>2.284377042267089</v>
+        <v>2.149866356058427</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.578909032916265</v>
+        <v>-2.366014390935325</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7386794680115563</v>
+        <v>0.673851609200682</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6508875467223255</v>
       </c>
       <c r="E44" t="n">
-        <v>1.931659914903688</v>
+        <v>1.832172703715928</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.497740179333956</v>
+        <v>-2.291138088975027</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7963425886326712</v>
+        <v>0.7288823121809522</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5823074928910705</v>
       </c>
       <c r="E45" t="n">
-        <v>1.812188652742278</v>
+        <v>1.70501705094817</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.528479571521382</v>
+        <v>-2.317711722940262</v>
       </c>
       <c r="G45" t="n">
-        <v>0.700336194747113</v>
+        <v>0.6162921750946142</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5203111953170956</v>
       </c>
       <c r="E46" t="n">
-        <v>1.59041295578721</v>
+        <v>1.513304344150013</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.45870159649802</v>
+        <v>-2.22757093620299</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6356711847569303</v>
+        <v>0.5620696170110352</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4629331362803215</v>
       </c>
       <c r="E47" t="n">
-        <v>1.421602160480266</v>
+        <v>1.358981604598543</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.365886917513885</v>
+        <v>-2.126135638373698</v>
       </c>
       <c r="G47" t="n">
-        <v>0.53512820087772</v>
+        <v>0.4774059179509605</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4090605117260546</v>
       </c>
       <c r="E48" t="n">
-        <v>1.296653200720982</v>
+        <v>1.235819102501454</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.366393151675585</v>
+        <v>-2.125934364550371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4829891318259122</v>
+        <v>0.4149695581136153</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3571398245869385</v>
       </c>
       <c r="E49" t="n">
-        <v>1.173129015662582</v>
+        <v>1.146996354346634</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.32233553159069</v>
+        <v>-2.063702938060413</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4222465217078964</v>
+        <v>0.3687003656548309</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3067855041494532</v>
       </c>
       <c r="E50" t="n">
-        <v>1.049603610762828</v>
+        <v>1.014569157169743</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.288983239224076</v>
+        <v>-2.015866859383062</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3531906927658045</v>
+        <v>0.321940796971941</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2589646616422629</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8123908214792661</v>
+        <v>0.8208193153112475</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.184767313029488</v>
+        <v>-1.92939657527846</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2729287912298206</v>
+        <v>0.2409799263404038</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2137453148459862</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7025373984694966</v>
+        <v>0.7388740327074389</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.151517487336568</v>
+        <v>-1.867464619840786</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1990021357632187</v>
+        <v>0.176690627487098</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.171058488726004</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5261233320062116</v>
+        <v>0.5881053009393795</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.127842196427239</v>
+        <v>-1.832765012699235</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1951382882760198</v>
+        <v>0.1590974655663003</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1312085584833742</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3739444636335107</v>
+        <v>0.4619907827668301</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.094920508058409</v>
+        <v>-1.808715230494383</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1259458371023363</v>
+        <v>0.115534491150247</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09338579128146444</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3341117640764485</v>
+        <v>0.4331458042013842</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.054363832658046</v>
+        <v>-1.769240554374572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07866234655811988</v>
+        <v>0.07058699679797559</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.05686343709582138</v>
       </c>
       <c r="E56" t="n">
-        <v>0.248285556206492</v>
+        <v>0.3593533312836669</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.082420793709134</v>
+        <v>-1.796147814949989</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01177417570119061</v>
+        <v>0.004893660546795767</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02188023913807785</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07383421448098225</v>
+        <v>0.1933579298205922</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.056350954222892</v>
+        <v>-1.749365069281382</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04597242804645422</v>
+        <v>0.03448945146531853</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01223338269025079</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.06882928141377224</v>
+        <v>0.0541124293983338</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.00100919169748</v>
+        <v>-1.728678999608795</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02377017157765596</v>
+        <v>-0.02230575203278388</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.04619534415019755</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1438031706823505</v>
+        <v>-0.004630250820625158</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.079303489130275</v>
+        <v>-1.796061206213891</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.03352219327818066</v>
+        <v>-0.01796616641772145</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.07962455269240988</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3448019197839963</v>
+        <v>-0.1707836217389776</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.148387374423497</v>
+        <v>-1.874218881415094</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.0472368696155375</v>
+        <v>-0.03399244211995341</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1126123022391473</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4311837653904702</v>
+        <v>-0.2356810115070012</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.134803221110964</v>
+        <v>-1.881406186669893</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.06781498332834023</v>
+        <v>-0.04741496645314792</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1452597351046541</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4405673950022391</v>
+        <v>-0.2630560812414843</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.098986849210288</v>
+        <v>-1.830785210182511</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1238971895553242</v>
+        <v>-0.09989315140122758</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.177066423194923</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6326692311921609</v>
+        <v>-0.4194269344254746</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.178823636034579</v>
+        <v>-1.886782637435427</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1238386371703563</v>
+        <v>-0.1032971186981585</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2079508583348837</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7287366171453941</v>
+        <v>-0.4776883872304794</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.186890446905248</v>
+        <v>-1.910493303744008</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1436598393233147</v>
+        <v>-0.1089266865445431</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2388472831588664</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8544400487818152</v>
+        <v>-0.5706110221743995</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.19854481119655</v>
+        <v>-1.934460136736823</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1396801069075336</v>
+        <v>-0.1099489135987728</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2701460348478461</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9871374408185065</v>
+        <v>-0.6698012019925826</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.237639506734747</v>
+        <v>-1.974394693046902</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2012278123188569</v>
+        <v>-0.1483647674237492</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3020908344258232</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.092975756013244</v>
+        <v>-0.7370577649382678</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.153047168393852</v>
+        <v>-1.909231377863816</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2023598250949013</v>
+        <v>-0.1770682443921896</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3348846695413423</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.201617266638314</v>
+        <v>-0.8321730647150971</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.192876818347531</v>
+        <v>-1.949620325078072</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2342226911688966</v>
+        <v>-0.1963386881740445</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.36764783937652</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.306027757528784</v>
+        <v>-0.936276155584486</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.219358354290577</v>
+        <v>-1.963505779204919</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2415600369101757</v>
+        <v>-0.2129632960601663</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3990809877791189</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.39646801531834</v>
+        <v>-0.9738033549834404</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.186078642484496</v>
+        <v>-1.966550503223245</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2309419278486688</v>
+        <v>-0.20497272527409</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4281088105469179</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.460256569296035</v>
+        <v>-1.018294628669504</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.198579576675125</v>
+        <v>-1.984343109205339</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2849083192480137</v>
+        <v>-0.2407567713788986</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4532430149971593</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.509557677438935</v>
+        <v>-1.073917564626897</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.253984770950919</v>
+        <v>-2.061853048647836</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.3422201255593217</v>
+        <v>-0.2731209922491807</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.472854591221743</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.51651687236063</v>
+        <v>-1.087074773465706</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.211056114038683</v>
+        <v>-2.0576360570888</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.376450703700453</v>
+        <v>-0.2933624297484185</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.485865239083188</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.508742823414799</v>
+        <v>-1.071311373575152</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.270719774479532</v>
+        <v>-2.092418613442388</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3512701285609094</v>
+        <v>-0.2706989972418142</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4914663408497121</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.48719249614326</v>
+        <v>-1.05512956810035</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.200442274421913</v>
+        <v>-2.06540461674854</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3940463053039577</v>
+        <v>-0.315214667754948</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4891159479334779</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.375569693250244</v>
+        <v>-0.9450620629330417</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.17623879220652</v>
+        <v>-2.063444941614148</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3411094600069635</v>
+        <v>-0.2629145796444787</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4786407465450417</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.257669586752138</v>
+        <v>-0.8500266627648663</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.081302199187978</v>
+        <v>-2.003774572045856</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.365382473179506</v>
+        <v>-0.2759229678381613</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.460135694854075</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.16798380083972</v>
+        <v>-0.7828475597451282</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.047049053981807</v>
+        <v>-1.966909746501849</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3288805504381649</v>
+        <v>-0.242723765561411</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4336954891586254</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9591664785828405</v>
+        <v>-0.5616531171950008</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.96129054730697</v>
+        <v>-1.885449350836056</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3260834542145984</v>
+        <v>-0.2351473309148467</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.399097990331079</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8616657790392495</v>
+        <v>-0.4996040569873906</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.957851204610787</v>
+        <v>-1.899695878003537</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3044190717765073</v>
+        <v>-0.2377584013320051</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3569690545270441</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5733038219622422</v>
+        <v>-0.265134080987165</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.858925730366313</v>
+        <v>-1.82440848950711</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2574179745056253</v>
+        <v>-0.1836742952420478</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3078939820122419</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3810031516317005</v>
+        <v>-0.098504971940949</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.934505270866902</v>
+        <v>-1.894321257000033</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2153261287618883</v>
+        <v>-0.1385920084202151</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2521416060573113</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.1473035054462076</v>
+        <v>0.1031555410949684</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.871127193504658</v>
+        <v>-1.837362594760562</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1946650658370478</v>
+        <v>-0.1160822759241513</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1912163927937358</v>
       </c>
       <c r="E84" t="n">
-        <v>0.05277853287828579</v>
+        <v>0.2752458798807864</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.728383798001249</v>
+        <v>-1.719067259663923</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2021207361896161</v>
+        <v>-0.1200296825440647</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1270248235282793</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3217547711655329</v>
+        <v>0.4890560127975251</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.618440106731321</v>
+        <v>-1.618637721030588</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1508752009292443</v>
+        <v>-0.07446555838760105</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06128820672759782</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4907070680694821</v>
+        <v>0.6160140512660172</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.477553309767934</v>
+        <v>-1.499090828705261</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1633474688480653</v>
+        <v>-0.07609465651519511</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.002991833339505473</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6996268570000549</v>
+        <v>0.7873846836532725</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.407684456563737</v>
+        <v>-1.400664879495043</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.09750409211040544</v>
+        <v>-0.03347583930674781</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06193567053952197</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8572944015428117</v>
+        <v>0.9364267299854582</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.303015969227002</v>
+        <v>-1.305252548348637</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02039182094914847</v>
+        <v>0.04160478608026137</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1107134625200269</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9027365415639257</v>
+        <v>0.9800958305992656</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.076033379454536</v>
+        <v>-1.101547581204261</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03138808083023921</v>
+        <v>0.02340963245151331</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.143286982906566</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9599568597737215</v>
+        <v>0.9919350008556221</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.039315544793626</v>
+        <v>-1.040382296057258</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01523364577970559</v>
+        <v>0.07057296862241039</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1539649940360214</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9874581830882914</v>
+        <v>0.9989185926043874</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7690304167340777</v>
+        <v>-0.7985347195510882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.004136748986951427</v>
+        <v>0.06332467129993646</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1385493251827277</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9541412661209288</v>
+        <v>0.9528805600820905</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.542372914682318</v>
+        <v>-0.5753000923372386</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02655689914971784</v>
+        <v>0.03088299050370726</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09606822601591816</v>
       </c>
       <c r="E93" t="n">
-        <v>1.025131153528989</v>
+        <v>0.9691007905595284</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3422829473890268</v>
+        <v>-0.3832293621018309</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.001192127965796355</v>
+        <v>0.05057488947319506</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.03110214850202531</v>
       </c>
       <c r="E94" t="n">
-        <v>1.093924716580079</v>
+        <v>1.043137231747945</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1353161244654013</v>
+        <v>-0.1899369607508969</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.06244524169025032</v>
+        <v>-0.02517603873756024</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04603045939205318</v>
       </c>
       <c r="E95" t="n">
-        <v>1.094973780144086</v>
+        <v>1.033058292564683</v>
       </c>
       <c r="F95" t="n">
-        <v>0.008794103274599598</v>
+        <v>-0.03221757295061656</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03498417314034576</v>
+        <v>-0.004238071825476157</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1220874960278505</v>
       </c>
       <c r="E96" t="n">
-        <v>1.091927226363729</v>
+        <v>1.049009548023675</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09206413358830495</v>
+        <v>0.04019403955494311</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09565969198391931</v>
+        <v>-0.06267457186470758</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1834086895863975</v>
       </c>
       <c r="E97" t="n">
-        <v>1.070064009785018</v>
+        <v>1.035848679660806</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1946021680011582</v>
+        <v>0.1317498422622708</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1036039087985628</v>
+        <v>-0.06660490070567207</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2212056780606851</v>
       </c>
       <c r="E98" t="n">
-        <v>1.045111544978578</v>
+        <v>1.036236589211217</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2172613310630253</v>
+        <v>0.1667745371245281</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1123349232862112</v>
+        <v>-0.06274471274253361</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2333205469435001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9770291494365764</v>
+        <v>0.9799396909060181</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2409567493546874</v>
+        <v>0.1865359670511652</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1189550023116346</v>
+        <v>-0.07308774757882718</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.228421060792092</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8759152798039298</v>
+        <v>0.8797041070478888</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283698160619161</v>
+        <v>0.2234550755354018</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08416085746518817</v>
+        <v>-0.04805294348102639</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.218825034560797</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9078037625463485</v>
+        <v>0.8952375668433084</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2824203768013738</v>
+        <v>0.2164013429088106</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1615524722963957</v>
+        <v>-0.10957808182731</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.21974301655245</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9110278032436387</v>
+        <v>0.8886138282938244</v>
       </c>
       <c r="F102" t="n">
-        <v>0.248847293149777</v>
+        <v>0.17895404311851</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1246236050813311</v>
+        <v>-0.08155893585818096</v>
       </c>
     </row>
   </sheetData>
